--- a/doc/cookbook/demand/demand-policies.xlsx
+++ b/doc/cookbook/demand/demand-policies.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="768" activeTab="8"/>
+    <workbookView xWindow="135" yWindow="480" windowWidth="22718" windowHeight="9203" tabRatio="768" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="buffer" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14129" uniqueCount="6486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14136" uniqueCount="6486">
   <si>
     <t>name</t>
   </si>
@@ -20093,10 +20093,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -20104,13 +20104,14 @@
     <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.796875" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.86328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20121,22 +20122,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6448</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6484</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>6478</v>
       </c>
@@ -20146,17 +20150,20 @@
       <c r="C2" t="s">
         <v>6450</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E2" s="1">
         <v>41644</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>6479</v>
       </c>
@@ -20166,21 +20173,24 @@
       <c r="C3" t="s">
         <v>6456</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E3" s="1">
         <v>41644</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>15</v>
       </c>
-      <c r="G3">
-        <f>F3</f>
+      <c r="H3">
+        <f>G3</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6480</v>
       </c>
@@ -20190,20 +20200,23 @@
       <c r="C4" t="s">
         <v>6457</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E4" s="1">
         <v>41644</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>18</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>6481</v>
       </c>
@@ -20213,20 +20226,23 @@
       <c r="C5" t="s">
         <v>6458</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E5" s="1">
         <v>41644</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>15</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>6482</v>
       </c>
@@ -20236,24 +20252,27 @@
       <c r="C6" t="s">
         <v>6459</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E6" s="1">
         <v>41644</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>18</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>15</v>
       </c>
-      <c r="G6">
-        <f>F6</f>
+      <c r="H6">
+        <f>G6</f>
         <v>15</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>6483</v>
       </c>
@@ -20263,24 +20282,28 @@
       <c r="C7" t="s">
         <v>6460</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" t="s">
+        <v>6446</v>
+      </c>
+      <c r="E7" s="1">
         <v>41644</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>12</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -20567,7 +20590,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -69607,7 +69630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C6"/>
     </sheetView>
   </sheetViews>
